--- a/data/testdata/test_datas.xlsx
+++ b/data/testdata/test_datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27706"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicInstitutionSystem\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0832C7A3-2EF5-4294-8C40-69B1870B6D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471D51F9-B8B5-46D5-AFF3-6F8127C66BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="241">
   <si>
     <t>username</t>
   </si>
@@ -93,18 +93,12 @@
     <t>是否主管单位</t>
   </si>
   <si>
-    <t>主管单位</t>
-  </si>
-  <si>
     <t>审核流程</t>
   </si>
   <si>
     <t>艰边类别</t>
   </si>
   <si>
-    <t>公务员规范后津贴标准类别驻地</t>
-  </si>
-  <si>
     <t>隶属关系</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>测试主管单位</t>
   </si>
   <si>
     <t>2级审核（基层-终审）</t>
@@ -843,6 +834,10 @@
   </si>
   <si>
     <t>21级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公务员规范后津贴标准类别驻地</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1307,7 +1302,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1446,6 +1441,33 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,31 +1501,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,7 +1815,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1835,10 +1833,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1854,21 +1852,20 @@
     <col min="10" max="10" width="17.25" style="36" customWidth="1"/>
     <col min="11" max="11" width="9" style="36"/>
     <col min="12" max="12" width="13" style="36" customWidth="1"/>
-    <col min="13" max="13" width="9" style="36"/>
-    <col min="14" max="14" width="21.5" style="36" customWidth="1"/>
-    <col min="15" max="15" width="9" style="36"/>
-    <col min="16" max="16" width="29.625" style="36" customWidth="1"/>
-    <col min="17" max="17" width="11" style="36" customWidth="1"/>
-    <col min="18" max="18" width="9" style="36"/>
-    <col min="19" max="19" width="15.375" style="36" customWidth="1"/>
-    <col min="20" max="20" width="16.75" style="36" customWidth="1"/>
-    <col min="21" max="21" width="17.25" style="36" customWidth="1"/>
-    <col min="22" max="23" width="13" style="36" customWidth="1"/>
-    <col min="24" max="24" width="19.25" style="36" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="36"/>
+    <col min="13" max="13" width="21.5" style="36" customWidth="1"/>
+    <col min="14" max="14" width="9" style="36"/>
+    <col min="15" max="15" width="29.625" style="36" customWidth="1"/>
+    <col min="16" max="16" width="11" style="36" customWidth="1"/>
+    <col min="17" max="17" width="9" style="36"/>
+    <col min="18" max="18" width="15.375" style="36" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="36" customWidth="1"/>
+    <col min="20" max="20" width="17.25" style="36" customWidth="1"/>
+    <col min="21" max="22" width="13" style="36" customWidth="1"/>
+    <col min="23" max="23" width="19.25" style="36" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>5</v>
       </c>
@@ -1911,110 +1908,104 @@
       <c r="N1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="O1" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="C2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="F2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="G2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="I2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="36" t="str">
+      <c r="O2" s="36" t="str">
         <f>IF(J2:J119="事业单位工资制度","","四川省")</f>
         <v/>
       </c>
+      <c r="P2" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="Q2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="T2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="36" t="s">
+      <c r="U2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>47</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2014,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0100-00000E000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2071,49 +2062,49 @@
           <x14:formula1>
             <xm:f>单位数据指标!$B$9:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1048576</xm:sqref>
+          <xm:sqref>M2:M1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$B$27:$B$33</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048576</xm:sqref>
+          <xm:sqref>N2:N1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$B$12:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$B$21:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$B$18:$B$20</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$B$34:$B$37</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U1048576</xm:sqref>
+          <xm:sqref>T2:T1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$D$3:$D$57</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V1048576</xm:sqref>
+          <xm:sqref>U2:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000F000000}">
           <x14:formula1>
             <xm:f>单位数据指标!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X1048576</xm:sqref>
+          <xm:sqref>W2:W1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2138,24 +2129,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
@@ -2215,121 +2206,121 @@
   <sheetData>
     <row r="1" spans="1:42" s="44" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="T1" s="42" t="s">
+      <c r="X1" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="Y1" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB1" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI1" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ1" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK1" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL1" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="V1" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="W1" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="X1" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z1" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="AA1" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB1" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC1" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD1" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE1" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF1" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG1" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH1" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI1" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ1" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK1" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL1" s="42" t="s">
-        <v>226</v>
-      </c>
       <c r="AM1" s="42" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AN1" s="43"/>
       <c r="AO1" s="43"/>
@@ -2337,40 +2328,40 @@
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="47">
         <v>202301</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>62</v>
-      </c>
       <c r="J2" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="46" t="s">
         <v>175</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>178</v>
       </c>
       <c r="M2" s="47">
         <v>20230101</v>
@@ -2381,57 +2372,57 @@
         <v>20030101</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S2" s="46">
         <v>20000630</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U2" s="48"/>
       <c r="V2" s="48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W2" s="46">
         <v>20030101</v>
       </c>
       <c r="X2" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y2" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z2" s="48">
         <v>20240101</v>
       </c>
       <c r="AA2" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AC2" s="46">
         <v>20030101</v>
       </c>
       <c r="AD2" s="48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AE2" s="47">
         <v>2018</v>
       </c>
       <c r="AF2" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG2" s="48"/>
       <c r="AH2" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AI2" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
@@ -2439,41 +2430,41 @@
       <c r="AM2" s="46"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
-        <v>237</v>
+      <c r="A3" s="50" t="s">
+        <v>234</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="47">
         <v>202302</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>62</v>
-      </c>
       <c r="J3" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="46" t="s">
         <v>175</v>
-      </c>
-      <c r="K3" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>178</v>
       </c>
       <c r="M3" s="47">
         <v>20230101</v>
@@ -2484,57 +2475,57 @@
         <v>20030101</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R3" s="48" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="S3" s="46">
         <v>20000630</v>
       </c>
       <c r="T3" s="48" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="U3" s="48"/>
       <c r="V3" s="48" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="W3" s="46">
         <v>20030102</v>
       </c>
       <c r="X3" s="48" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Y3" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z3" s="48">
         <v>20240102</v>
       </c>
       <c r="AA3" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB3" s="48" t="s">
         <v>238</v>
-      </c>
-      <c r="AB3" s="48" t="s">
-        <v>241</v>
       </c>
       <c r="AC3" s="46">
         <v>20030102</v>
       </c>
       <c r="AD3" s="48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AE3" s="47">
         <v>2019</v>
       </c>
       <c r="AF3" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG3" s="48"/>
       <c r="AH3" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AI3" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AJ3" s="46"/>
       <c r="AK3" s="46"/>
@@ -4068,152 +4059,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4240,22 +4231,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4284,150 +4275,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="55"/>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="56"/>
+      <c r="B5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="8" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="10" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="11" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="9" t="s">
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="12" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="55"/>
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="56"/>
+        <v>76</v>
+      </c>
+      <c r="C8" s="65"/>
       <c r="D8" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="67" t="s">
-        <v>18</v>
+      <c r="A9" s="57" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="56"/>
+        <v>85</v>
+      </c>
+      <c r="C9" s="65"/>
       <c r="D9" s="15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="56"/>
+        <v>38</v>
+      </c>
+      <c r="C10" s="65"/>
       <c r="D10" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -4436,530 +4427,530 @@
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="56"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="61" t="s">
-        <v>92</v>
+      <c r="A12" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="65"/>
       <c r="D12" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="56"/>
+        <v>92</v>
+      </c>
+      <c r="C13" s="65"/>
       <c r="D13" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="56"/>
+        <v>94</v>
+      </c>
+      <c r="C14" s="65"/>
       <c r="D14" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="56"/>
+        <v>96</v>
+      </c>
+      <c r="C15" s="65"/>
       <c r="D15" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="56"/>
+        <v>40</v>
+      </c>
+      <c r="C16" s="65"/>
       <c r="D16" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="56"/>
+        <v>99</v>
+      </c>
+      <c r="C17" s="65"/>
       <c r="D17" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="61" t="s">
-        <v>24</v>
+      <c r="A18" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="56"/>
+        <v>101</v>
+      </c>
+      <c r="C18" s="65"/>
       <c r="D18" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="56"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="65"/>
       <c r="D19" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="65"/>
       <c r="D20" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
-        <v>23</v>
+      <c r="A21" s="54" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="56"/>
+        <v>101</v>
+      </c>
+      <c r="C21" s="65"/>
       <c r="D21" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="56"/>
+        <v>43</v>
+      </c>
+      <c r="C22" s="65"/>
       <c r="D22" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="56"/>
+        <v>42</v>
+      </c>
+      <c r="C23" s="65"/>
       <c r="D23" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
-        <v>111</v>
+      <c r="A24" s="54" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="56"/>
+        <v>109</v>
+      </c>
+      <c r="C24" s="65"/>
       <c r="D24" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="56"/>
+        <v>35</v>
+      </c>
+      <c r="C25" s="65"/>
       <c r="D25" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="56"/>
+        <v>112</v>
+      </c>
+      <c r="C26" s="65"/>
       <c r="D26" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
-        <v>19</v>
+      <c r="A27" s="54" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="56"/>
+        <v>39</v>
+      </c>
+      <c r="C27" s="65"/>
       <c r="D27" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="56"/>
+        <v>114</v>
+      </c>
+      <c r="C28" s="65"/>
       <c r="D28" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="56"/>
+        <v>116</v>
+      </c>
+      <c r="C29" s="65"/>
       <c r="D29" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="56"/>
+        <v>118</v>
+      </c>
+      <c r="C30" s="65"/>
       <c r="D30" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="56"/>
+        <v>120</v>
+      </c>
+      <c r="C31" s="65"/>
       <c r="D31" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="57"/>
+        <v>122</v>
+      </c>
+      <c r="C32" s="66"/>
       <c r="D32" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>25</v>
+      <c r="A34" s="54" t="s">
+        <v>23</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C37" s="19"/>
       <c r="D37" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="12"/>
       <c r="C38" s="19"/>
       <c r="D38" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="51"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="51"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="61" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -4970,7 +4961,7 @@
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4981,7 +4972,7 @@
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="D52" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -4992,7 +4983,7 @@
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
       <c r="D53" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5003,7 +4994,7 @@
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5014,7 +5005,7 @@
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5025,7 +5016,7 @@
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5036,7 +5027,7 @@
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5044,11 +5035,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="C3:C32"/>
@@ -5058,6 +5044,11 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A17"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5088,26 +5079,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata/test_datas.xlsx
+++ b/data/testdata/test_datas.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27720"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicInstitutionSystem\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C656F2F-9606-46EC-924A-770AC881F4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB1DE82-E0EE-4D5F-8CB9-8276B7EAADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="807" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="8" r:id="rId1"/>
     <sheet name="personnel_reduction" sheetId="11" r:id="rId2"/>
-    <sheet name="create_unit" sheetId="10" r:id="rId3"/>
-    <sheet name="unitInformationModification" sheetId="1" r:id="rId4"/>
-    <sheet name="create_internal_organization" sheetId="6" r:id="rId5"/>
-    <sheet name="add_person" sheetId="7" r:id="rId6"/>
-    <sheet name="码表" sheetId="9" r:id="rId7"/>
-    <sheet name="单位性质" sheetId="4" state="hidden" r:id="rId8"/>
-    <sheet name="单位数据指标" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="财政供养&amp;财政统发" sheetId="3" state="hidden" r:id="rId10"/>
+    <sheet name="核定常规绩效水平" sheetId="12" r:id="rId3"/>
+    <sheet name="create_unit" sheetId="10" r:id="rId4"/>
+    <sheet name="unitInformationModification" sheetId="1" r:id="rId5"/>
+    <sheet name="create_internal_organization" sheetId="6" r:id="rId6"/>
+    <sheet name="add_person" sheetId="7" r:id="rId7"/>
+    <sheet name="码表" sheetId="9" r:id="rId8"/>
+    <sheet name="单位性质" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="单位数据指标" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="财政供养&amp;财政统发" sheetId="3" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="251">
   <si>
     <t>username</t>
   </si>
@@ -51,9 +52,6 @@
   </si>
   <si>
     <t>verifyCode</t>
-  </si>
-  <si>
-    <t>qyqzs</t>
   </si>
   <si>
     <t>Aa123456</t>
@@ -800,6 +798,26 @@
   </si>
   <si>
     <t>人员减少(其他原因)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效年份</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改绩效金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>qyq002</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -807,8 +825,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1264,7 +1284,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1370,43 +1390,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,75 +1507,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1500,6 +1554,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6D484D7-C975-45E5-B928-A516E0A4323F}" name="表1" displayName="表1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D4" xr:uid="{A6D484D7-C975-45E5-B928-A516E0A4323F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{81750C38-BA6F-40D5-9DF7-3BF8D4A526CE}" name="绩效年份" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BD1865F6-C3E3-4C61-965D-A13D79FA9EDD}" name="单位代码" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BEA5A6AE-CDC0-4A5F-83AB-02B45AD04685}" name="绩效金额" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C3D7999B-2F7D-4CEA-8B60-368DD6EF6271}" name="修改绩效金额" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0">
   <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
@@ -1771,7 +1838,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1791,14 +1858,14 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1808,6 +1875,806 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="73"/>
+      <c r="B4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="74"/>
+      <c r="B5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="73"/>
+      <c r="B7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="79"/>
+      <c r="B10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="73"/>
+      <c r="B13" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="73"/>
+      <c r="B14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="73"/>
+      <c r="B15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="73"/>
+      <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="74"/>
+      <c r="B17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="73"/>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="74"/>
+      <c r="B20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="73"/>
+      <c r="B22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="74"/>
+      <c r="B23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="73"/>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="74"/>
+      <c r="B26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="67"/>
+      <c r="D26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="67"/>
+      <c r="D27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="73"/>
+      <c r="B28" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="73"/>
+      <c r="B29" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="73"/>
+      <c r="B30" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="73"/>
+      <c r="B31" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="73"/>
+      <c r="B32" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="68"/>
+      <c r="D32" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="74"/>
+      <c r="B33" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="73"/>
+      <c r="B35" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="73"/>
+      <c r="B36" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="73"/>
+      <c r="B37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="74"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="62"/>
+      <c r="B40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="62"/>
+      <c r="B42" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="62"/>
+      <c r="B43" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="64"/>
+      <c r="B48" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="64"/>
+      <c r="B49" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="65"/>
+      <c r="B50" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="24"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="C3:C32"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A34:A38"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B4"/>
@@ -1823,34 +2690,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1866,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77B56F1-5362-4017-8B81-16840F9E7C40}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1879,28 +2746,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="C1" s="51" t="s">
         <v>229</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>230</v>
       </c>
       <c r="D1" s="48"/>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
-        <v>231</v>
+      <c r="A2" s="52" t="s">
+        <v>230</v>
       </c>
       <c r="B2" s="38">
         <v>202401</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1922,11 +2789,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D58B18-832A-486F-B6FA-40382B7C6D47}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" style="60" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="58" customWidth="1"/>
+    <col min="4" max="4" width="9" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="59">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="58">
+        <v>300</v>
+      </c>
+      <c r="D2" s="58">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="58"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="58"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1950,139 +2876,139 @@
   <sheetData>
     <row r="1" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="O1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>26</v>
-      </c>
-      <c r="V1" s="48" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="I2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="N2" s="38" t="str">
         <f>IF(I2:I119="事业单位工资制度","","四川省")</f>
         <v/>
       </c>
       <c r="O2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="Q2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="R2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="T2" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="U2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="V2" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="V2" s="38" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2190,7 +3116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W2"/>
@@ -2227,145 +3153,145 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="J1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="K1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="L1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="M1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="R1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="S1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="T1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="U1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="V1" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="W1" s="48" t="s">
         <v>26</v>
-      </c>
-      <c r="W1" s="48" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="J2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="38" t="s">
+      <c r="K2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="L2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>38</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>39</v>
       </c>
       <c r="O2" s="38" t="str">
         <f>IF(J2:J119="事业单位工资制度","","四川省")</f>
         <v/>
       </c>
       <c r="P2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="R2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="S2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="T2" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="38" t="s">
-        <v>44</v>
-      </c>
       <c r="U2" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="38" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +3398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2489,24 +3415,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="C1" s="48" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="47" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2515,7 +3441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AP38"/>
   <sheetViews>
@@ -2565,121 +3491,121 @@
   <sheetData>
     <row r="1" spans="1:42" s="36" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="O1" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>94</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>95</v>
       </c>
       <c r="AN1" s="46"/>
       <c r="AO1" s="46"/>
@@ -2687,40 +3613,40 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>97</v>
       </c>
       <c r="C2" s="43">
         <v>202302</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="G2" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="H2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="I2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="42" t="s">
         <v>104</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>105</v>
       </c>
       <c r="M2" s="43">
         <v>20230101</v>
@@ -2731,57 +3657,57 @@
         <v>20030101</v>
       </c>
       <c r="Q2" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="S2" s="42">
         <v>20000630</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="44"/>
       <c r="V2" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W2" s="42">
         <v>20030102</v>
       </c>
       <c r="X2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Z2" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="AA2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="44" t="s">
         <v>111</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>112</v>
       </c>
       <c r="AC2" s="42">
         <v>20030102</v>
       </c>
       <c r="AD2" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE2" s="43">
         <v>2019</v>
       </c>
       <c r="AF2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AG2" s="44"/>
       <c r="AH2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ2" s="42"/>
       <c r="AK2" s="42"/>
@@ -4300,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -4316,200 +5242,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>232</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>233</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>234</v>
+        <v>113</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>235</v>
+        <v>114</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="74" t="s">
-        <v>237</v>
+        <v>115</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>238</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>239</v>
+        <v>117</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>240</v>
+        <v>118</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="54" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="74" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>243</v>
+        <v>61</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>244</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="54" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="74" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="73"/>
+        <v>63</v>
+      </c>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="73"/>
+        <v>121</v>
+      </c>
+      <c r="C16" s="53"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +5444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A5"/>
@@ -4531,831 +5457,31 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="66"/>
-      <c r="D31" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="64"/>
-      <c r="B50" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="C3:C32"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A17"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>